--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660483.7902939843</v>
+        <v>655959.3816639843</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30165426.96050235</v>
+        <v>30165426.96050233</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7431985.47750314</v>
+        <v>7431985.477503137</v>
       </c>
     </row>
     <row r="9">
@@ -1132,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6530000821519226</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.570411643236317</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.08258843891560583</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>0.7413715737419651</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7413715737419651</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.7413715737419651</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,35 +1211,35 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.6530000821519226</v>
       </c>
-      <c r="C9" t="n">
+      <c r="I9" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="D9" t="n">
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0.7413715737419651</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>56.83517694401805</v>
       </c>
       <c r="E11" t="n">
-        <v>225.7392385673926</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.3416766198384</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T12" t="n">
         <v>136.2471199530304</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1539,16 +1539,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>72.41228859728429</v>
+        <v>62.87814272967704</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>79.8091790368823</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>309.481126830068</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H14" t="n">
         <v>274.8783417406876</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>317.9958018681675</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T15" t="n">
         <v>136.2471199530304</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.429180287773432</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>163.7179050456562</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.77818058461915</v>
       </c>
       <c r="I16" t="n">
         <v>72.41228859728429</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U16" t="n">
         <v>277.3347951985322</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>159.6590716762699</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>182.8946182898156</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T18" t="n">
         <v>136.2471199530304</v>
@@ -2007,22 +2007,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>47.49113771076784</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.157826386379099</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S19" t="n">
         <v>153.1587802408334</v>
@@ -2058,7 +2058,7 @@
         <v>237.16093036331</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3347951985322</v>
+        <v>26.30000378370128</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2647963147141</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>19.09369980627875</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>58.79695632652504</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T21" t="n">
         <v>136.2471199530304</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2247,19 +2247,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>73.03357665272722</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.157826386379092</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S22" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.16093036331</v>
@@ -2298,16 +2298,16 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>155.0488937113045</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2647963147141</v>
+        <v>123.2572486299069</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>255.6150406962232</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T24" t="n">
         <v>136.2471199530304</v>
@@ -2478,16 +2478,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>45.56651881629617</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.7179050456562</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.16093036331</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>156.8785107021814</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>354.5822432591359</v>
       </c>
       <c r="G26" t="n">
-        <v>56.3691421437884</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T27" t="n">
         <v>136.2471199530304</v>
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,16 +2724,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2778,10 +2778,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>69.2567683734636</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>180.636432258904</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127.7323023546083</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3416766198384</v>
+        <v>369.7924570242189</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6150406962232</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T30" t="n">
         <v>136.2471199530304</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2961,16 +2961,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>84.29091268319256</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.53656897956751</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1587802408334</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3015,7 +3015,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>224.0793406271554</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>267.4347843683256</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H32" t="n">
         <v>274.8783417406876</v>
@@ -3085,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6150406962232</v>
+        <v>100.3096045767577</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T33" t="n">
         <v>136.2471199530304</v>
@@ -3195,19 +3195,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>7.157826386379092</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3347951985322</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>262.5697339216049</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>217.743975200641</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>389.2615834680136</v>
       </c>
       <c r="G35" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>179.8436791187353</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T36" t="n">
         <v>136.2471199530304</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>32.62961142706143</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>237.16093036331</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>45.31901818587572</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>355.1212574567165</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1627014039893</v>
+        <v>133.7995921596149</v>
       </c>
       <c r="U38" t="n">
         <v>255.6150406962232</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T39" t="n">
         <v>136.2471199530304</v>
@@ -3669,19 +3669,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>37.86710583214595</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>167.7643661622696</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3729,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.79695632652505</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>98.17532344693326</v>
+        <v>293.972041546967</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.06775448085374</v>
       </c>
       <c r="H42" t="n">
-        <v>42.7452005362448</v>
+        <v>42.74520053624479</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T42" t="n">
         <v>136.2471199530304</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>147.3239855003964</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7179050456562</v>
+        <v>130.1134350130139</v>
       </c>
       <c r="H43" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I43" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T43" t="n">
         <v>237.16093036331</v>
@@ -3957,7 +3957,7 @@
         <v>277.3347951985322</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,16 +3985,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3416766198384</v>
+        <v>352.7689978734923</v>
       </c>
       <c r="H44" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9563728846871</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>92.06775448085374</v>
       </c>
       <c r="H45" t="n">
-        <v>42.7452005362448</v>
+        <v>42.74520053624479</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>61.09168024046796</v>
+        <v>61.09168024046795</v>
       </c>
       <c r="T45" t="n">
         <v>136.2471199530304</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>7.157826386379099</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.16093036331</v>
       </c>
       <c r="U46" t="n">
-        <v>155.7006588435379</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4200,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>215.4071099607902</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.557030076893226</v>
+        <v>1.467765943973991</v>
       </c>
       <c r="C8" t="n">
-        <v>1.557030076893226</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="D8" t="n">
-        <v>1.557030076893226</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8081699013962916</v>
+        <v>0.718905768477057</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.1427323914706762</v>
       </c>
       <c r="G8" t="n">
         <v>0.05930972589935721</v>
       </c>
       <c r="H8" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7636127209542241</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7636127209542241</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7636127209542241</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7636127209542241</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7636127209542241</v>
+        <v>0.7932675839039026</v>
       </c>
       <c r="N8" t="n">
-        <v>1.497570578958769</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="O8" t="n">
-        <v>1.497570578958769</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="P8" t="n">
-        <v>1.497570578958769</v>
+        <v>2.231528436963315</v>
       </c>
       <c r="Q8" t="n">
         <v>2.231528436963315</v>
@@ -4846,7 +4846,7 @@
         <v>2.96548629496786</v>
       </c>
       <c r="X8" t="n">
-        <v>2.216626119470926</v>
+        <v>2.96548629496786</v>
       </c>
       <c r="Y8" t="n">
         <v>2.216626119470926</v>
@@ -4859,31 +4859,31 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.216626119470926</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.557030076893226</v>
       </c>
-      <c r="C9" t="n">
+      <c r="I9" t="n">
         <v>0.8081699013962916</v>
       </c>
-      <c r="D9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.05930972589935721</v>
-      </c>
       <c r="J9" t="n">
-        <v>0.05930972589935721</v>
+        <v>0.8081699013962916</v>
       </c>
       <c r="K9" t="n">
         <v>0.05930972589935721</v>
@@ -4892,10 +4892,10 @@
         <v>0.7932675839039026</v>
       </c>
       <c r="M9" t="n">
-        <v>1.497570578958769</v>
+        <v>1.527225441908448</v>
       </c>
       <c r="N9" t="n">
-        <v>2.231528436963315</v>
+        <v>2.261183299912993</v>
       </c>
       <c r="O9" t="n">
         <v>2.96548629496786</v>
@@ -4904,28 +4904,28 @@
         <v>2.96548629496786</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="R9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="T9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="U9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="V9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="W9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="X9" t="n">
-        <v>2.96548629496786</v>
+        <v>2.216626119470926</v>
       </c>
       <c r="Y9" t="n">
         <v>2.216626119470926</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672.3068554077381</v>
+        <v>1631.376494596263</v>
       </c>
       <c r="C11" t="n">
-        <v>672.3068554077381</v>
+        <v>1204.475764609563</v>
       </c>
       <c r="D11" t="n">
-        <v>672.3068554077381</v>
+        <v>1147.066494969141</v>
       </c>
       <c r="E11" t="n">
-        <v>444.2874225113819</v>
+        <v>1147.066494969141</v>
       </c>
       <c r="F11" t="n">
-        <v>444.2874225113819</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="G11" t="n">
-        <v>41.92209259235321</v>
+        <v>319.5769832395124</v>
       </c>
       <c r="H11" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I11" t="n">
-        <v>82.29775374785459</v>
+        <v>82.2977537478547</v>
       </c>
       <c r="J11" t="n">
         <v>217.3564621562498</v>
       </c>
       <c r="K11" t="n">
-        <v>428.0194649169803</v>
+        <v>428.0194649169802</v>
       </c>
       <c r="L11" t="n">
-        <v>695.3620842405358</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M11" t="n">
         <v>997.9785432306628</v>
@@ -5062,31 +5062,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q11" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R11" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="S11" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T11" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U11" t="n">
-        <v>1837.907618813394</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V11" t="n">
-        <v>1480.418203939644</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W11" t="n">
-        <v>1084.026854239991</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X11" t="n">
-        <v>672.3068554077381</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="Y11" t="n">
-        <v>672.3068554077381</v>
+        <v>1631.376494596263</v>
       </c>
     </row>
     <row r="12">
@@ -5120,16 +5120,16 @@
         <v>61.54715157330345</v>
       </c>
       <c r="J12" t="n">
-        <v>138.9292929260527</v>
+        <v>430.7270672914883</v>
       </c>
       <c r="K12" t="n">
-        <v>283.8878567618358</v>
+        <v>575.6856311272714</v>
       </c>
       <c r="L12" t="n">
-        <v>507.4049252930363</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M12" t="n">
-        <v>746.7907880064074</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N12" t="n">
         <v>1265.576683836778</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1089.721471704419</v>
+        <v>600.3319680554898</v>
       </c>
       <c r="C13" t="n">
-        <v>917.7489085833349</v>
+        <v>600.3319680554898</v>
       </c>
       <c r="D13" t="n">
-        <v>754.4321357101056</v>
+        <v>437.0151951822605</v>
       </c>
       <c r="E13" t="n">
-        <v>588.2239298629592</v>
+        <v>270.8069893351141</v>
       </c>
       <c r="F13" t="n">
-        <v>416.3621556375195</v>
+        <v>270.8069893351141</v>
       </c>
       <c r="G13" t="n">
-        <v>250.990534379281</v>
+        <v>105.4353680768755</v>
       </c>
       <c r="H13" t="n">
-        <v>115.0658184481959</v>
+        <v>105.4353680768755</v>
       </c>
       <c r="I13" t="n">
         <v>41.92209259235321</v>
@@ -5202,49 +5202,49 @@
         <v>82.84021611732985</v>
       </c>
       <c r="K13" t="n">
-        <v>162.8996588596174</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L13" t="n">
-        <v>391.7880674843905</v>
+        <v>893.8793769001281</v>
       </c>
       <c r="M13" t="n">
-        <v>910.5739633147614</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N13" t="n">
-        <v>1022.818908766711</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O13" t="n">
-        <v>1500.896730616548</v>
+        <v>1597.873082540807</v>
       </c>
       <c r="P13" t="n">
-        <v>1896.443943434684</v>
+        <v>1993.420295358943</v>
       </c>
       <c r="Q13" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R13" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S13" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T13" t="n">
-        <v>1694.612168011072</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U13" t="n">
-        <v>1694.612168011072</v>
+        <v>1815.968472851466</v>
       </c>
       <c r="V13" t="n">
-        <v>1412.900700619101</v>
+        <v>1534.257005459495</v>
       </c>
       <c r="W13" t="n">
-        <v>1332.285368258614</v>
+        <v>1259.404601632008</v>
       </c>
       <c r="X13" t="n">
-        <v>1089.721471704419</v>
+        <v>1016.840705077813</v>
       </c>
       <c r="Y13" t="n">
-        <v>1089.721471704419</v>
+        <v>790.4979367675554</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>745.5539230916548</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="C14" t="n">
-        <v>745.5539230916548</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="D14" t="n">
-        <v>745.5539230916548</v>
+        <v>1460.526451828934</v>
       </c>
       <c r="E14" t="n">
-        <v>319.5769832395124</v>
+        <v>1034.549511976792</v>
       </c>
       <c r="F14" t="n">
-        <v>319.5769832395124</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="G14" t="n">
         <v>319.5769832395124</v>
@@ -5275,10 +5275,10 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I14" t="n">
-        <v>82.29775374785459</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J14" t="n">
-        <v>217.3564621562493</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K14" t="n">
         <v>428.0194649169797</v>
@@ -5287,7 +5287,7 @@
         <v>695.3620842405351</v>
       </c>
       <c r="M14" t="n">
-        <v>997.9785432306626</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N14" t="n">
         <v>1306.241396764578</v>
@@ -5299,7 +5299,7 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q14" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R14" t="n">
         <v>2096.104629617661</v>
@@ -5314,16 +5314,16 @@
         <v>1883.819072643934</v>
       </c>
       <c r="V14" t="n">
-        <v>1562.611191969017</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="W14" t="n">
-        <v>1562.611191969017</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="X14" t="n">
-        <v>1150.891193136765</v>
+        <v>1883.819072643934</v>
       </c>
       <c r="Y14" t="n">
-        <v>745.5539230916548</v>
+        <v>1883.819072643934</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>61.54715157330345</v>
       </c>
       <c r="J15" t="n">
-        <v>138.9292929260527</v>
+        <v>430.7270672914883</v>
       </c>
       <c r="K15" t="n">
-        <v>283.8878567618358</v>
+        <v>575.6856311272714</v>
       </c>
       <c r="L15" t="n">
-        <v>486.3299477746344</v>
+        <v>778.1277221400701</v>
       </c>
       <c r="M15" t="n">
-        <v>725.7158104880054</v>
+        <v>1017.513584853441</v>
       </c>
       <c r="N15" t="n">
-        <v>973.7789094713426</v>
+        <v>1265.576683836778</v>
       </c>
       <c r="O15" t="n">
-        <v>1197.097465261194</v>
+        <v>1488.89523962663</v>
       </c>
       <c r="P15" t="n">
-        <v>1373.188671129675</v>
+        <v>1664.98644549511</v>
       </c>
       <c r="Q15" t="n">
-        <v>1669.131383560658</v>
+        <v>1774.586883845564</v>
       </c>
       <c r="R15" t="n">
         <v>1815.413022142049</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8241926522498</v>
+        <v>865.142267688429</v>
       </c>
       <c r="C16" t="n">
-        <v>781.8241926522498</v>
+        <v>693.169704567345</v>
       </c>
       <c r="D16" t="n">
-        <v>618.5074197790206</v>
+        <v>529.8529316941157</v>
       </c>
       <c r="E16" t="n">
-        <v>452.2992139318741</v>
+        <v>529.8529316941157</v>
       </c>
       <c r="F16" t="n">
-        <v>280.4374397064345</v>
+        <v>357.9911574686761</v>
       </c>
       <c r="G16" t="n">
-        <v>115.0658184481959</v>
+        <v>192.6195362104375</v>
       </c>
       <c r="H16" t="n">
         <v>115.0658184481959</v>
@@ -5436,22 +5436,22 @@
         <v>41.92209259235321</v>
       </c>
       <c r="J16" t="n">
-        <v>160.7619327655507</v>
+        <v>119.1436911382062</v>
       </c>
       <c r="K16" t="n">
-        <v>240.8213755078383</v>
+        <v>199.2031338804939</v>
       </c>
       <c r="L16" t="n">
-        <v>391.7880674843905</v>
+        <v>306.5113492158175</v>
       </c>
       <c r="M16" t="n">
-        <v>910.5739633147614</v>
+        <v>825.2972450461884</v>
       </c>
       <c r="N16" t="n">
-        <v>1022.818908766711</v>
+        <v>1335.575113340018</v>
       </c>
       <c r="O16" t="n">
-        <v>1500.896730616548</v>
+        <v>1813.652935189855</v>
       </c>
       <c r="P16" t="n">
         <v>1896.443943434684</v>
@@ -5460,28 +5460,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R16" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S16" t="n">
-        <v>2088.874501954651</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T16" t="n">
-        <v>2088.874501954651</v>
+        <v>1701.842295674081</v>
       </c>
       <c r="U16" t="n">
-        <v>1808.738345188457</v>
+        <v>1421.706138907887</v>
       </c>
       <c r="V16" t="n">
-        <v>1527.026877796486</v>
+        <v>1139.994671515916</v>
       </c>
       <c r="W16" t="n">
-        <v>1252.174473968999</v>
+        <v>865.142267688429</v>
       </c>
       <c r="X16" t="n">
-        <v>1009.610577414804</v>
+        <v>865.142267688429</v>
       </c>
       <c r="Y16" t="n">
-        <v>783.2678091045462</v>
+        <v>865.142267688429</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>890.3388952179528</v>
+        <v>1055.218793961643</v>
       </c>
       <c r="C17" t="n">
-        <v>890.3388952179528</v>
+        <v>628.3180639749428</v>
       </c>
       <c r="D17" t="n">
-        <v>467.046274402953</v>
+        <v>628.3180639749428</v>
       </c>
       <c r="E17" t="n">
-        <v>467.046274402953</v>
+        <v>628.3180639749428</v>
       </c>
       <c r="F17" t="n">
-        <v>41.92209259235321</v>
+        <v>203.193882164343</v>
       </c>
       <c r="G17" t="n">
-        <v>41.92209259235321</v>
+        <v>203.193882164343</v>
       </c>
       <c r="H17" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I17" t="n">
-        <v>82.29775374785436</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J17" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K17" t="n">
-        <v>428.01946491698</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L17" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M17" t="n">
         <v>997.9785432306624</v>
@@ -5536,31 +5536,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q17" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R17" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="S17" t="n">
-        <v>2096.104629617661</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="T17" t="n">
-        <v>2096.104629617661</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="U17" t="n">
-        <v>1837.907618813394</v>
+        <v>1824.428207667646</v>
       </c>
       <c r="V17" t="n">
-        <v>1480.418203939644</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="W17" t="n">
-        <v>1295.676165263063</v>
+        <v>1466.938792793895</v>
       </c>
       <c r="X17" t="n">
-        <v>1295.676165263063</v>
+        <v>1055.218793961643</v>
       </c>
       <c r="Y17" t="n">
-        <v>890.3388952179528</v>
+        <v>1055.218793961643</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>85.00445741771529</v>
       </c>
       <c r="J18" t="n">
-        <v>430.7270672914887</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K18" t="n">
-        <v>575.6856311272718</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L18" t="n">
-        <v>778.1277221400703</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M18" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N18" t="n">
-        <v>1265.576683836779</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O18" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P18" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R18" t="n">
         <v>1815.413022142049</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.1822747591593</v>
+        <v>452.4100028275185</v>
       </c>
       <c r="C19" t="n">
-        <v>253.2097116380753</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="D19" t="n">
-        <v>89.89293876484598</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="E19" t="n">
-        <v>89.89293876484598</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="F19" t="n">
-        <v>41.92209259235321</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="G19" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H19" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I19" t="n">
         <v>41.92209259235321</v>
@@ -5682,16 +5682,16 @@
         <v>893.8793769001281</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.665272730499</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N19" t="n">
-        <v>1524.910218182448</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O19" t="n">
-        <v>1652.270227994447</v>
+        <v>1597.873082540807</v>
       </c>
       <c r="P19" t="n">
-        <v>2047.817440812583</v>
+        <v>1993.420295358943</v>
       </c>
       <c r="Q19" t="n">
         <v>2096.104629617661</v>
@@ -5706,19 +5706,19 @@
         <v>1694.612168011072</v>
       </c>
       <c r="U19" t="n">
-        <v>1414.476011244878</v>
+        <v>1668.046507623495</v>
       </c>
       <c r="V19" t="n">
-        <v>1132.764543852907</v>
+        <v>1386.335040231524</v>
       </c>
       <c r="W19" t="n">
-        <v>857.9121400254198</v>
+        <v>1111.482636404037</v>
       </c>
       <c r="X19" t="n">
-        <v>615.3482434712249</v>
+        <v>868.918739849842</v>
       </c>
       <c r="Y19" t="n">
-        <v>615.3482434712249</v>
+        <v>642.5759715395841</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>391.6845131122665</v>
+        <v>1616.865400349842</v>
       </c>
       <c r="C20" t="n">
-        <v>391.6845131122665</v>
+        <v>1189.964670363142</v>
       </c>
       <c r="D20" t="n">
-        <v>391.6845131122665</v>
+        <v>1189.964670363142</v>
       </c>
       <c r="E20" t="n">
-        <v>391.6845131122665</v>
+        <v>763.9877305109998</v>
       </c>
       <c r="F20" t="n">
-        <v>41.9220925923532</v>
+        <v>338.8635487004</v>
       </c>
       <c r="G20" t="n">
-        <v>41.9220925923532</v>
+        <v>319.5769832395123</v>
       </c>
       <c r="H20" t="n">
         <v>41.9220925923532</v>
       </c>
       <c r="I20" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785453</v>
       </c>
       <c r="J20" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K20" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169796</v>
       </c>
       <c r="L20" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M20" t="n">
         <v>997.9785432306624</v>
@@ -5782,22 +5782,22 @@
         <v>2036.713764641372</v>
       </c>
       <c r="T20" t="n">
-        <v>1824.428207667645</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="U20" t="n">
-        <v>1566.231196863379</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="V20" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="W20" t="n">
-        <v>1208.741781989629</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="X20" t="n">
-        <v>797.0217831573761</v>
+        <v>2036.713764641372</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.6845131122665</v>
+        <v>2036.713764641372</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>41.9220925923532</v>
       </c>
       <c r="I21" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J21" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K21" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L21" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M21" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N21" t="n">
-        <v>1244.501706318376</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O21" t="n">
-        <v>1467.820262108228</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P21" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R21" t="n">
         <v>1815.413022142049</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>543.4196344338129</v>
+        <v>825.4227811800422</v>
       </c>
       <c r="C22" t="n">
-        <v>371.447071312729</v>
+        <v>653.4502180589582</v>
       </c>
       <c r="D22" t="n">
-        <v>208.1302984394997</v>
+        <v>490.1334451857289</v>
       </c>
       <c r="E22" t="n">
-        <v>41.9220925923532</v>
+        <v>490.1334451857289</v>
       </c>
       <c r="F22" t="n">
-        <v>41.9220925923532</v>
+        <v>416.3621556375195</v>
       </c>
       <c r="G22" t="n">
-        <v>41.9220925923532</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H22" t="n">
-        <v>41.9220925923532</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I22" t="n">
         <v>41.9220925923532</v>
       </c>
       <c r="J22" t="n">
-        <v>160.7619327655507</v>
+        <v>119.1436911382059</v>
       </c>
       <c r="K22" t="n">
-        <v>240.8213755078383</v>
+        <v>199.2031338804935</v>
       </c>
       <c r="L22" t="n">
-        <v>724.518484434327</v>
+        <v>306.5113492158172</v>
       </c>
       <c r="M22" t="n">
-        <v>838.189422773219</v>
+        <v>825.297245046188</v>
       </c>
       <c r="N22" t="n">
-        <v>1348.467291067049</v>
+        <v>1335.575113340018</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.896730616548</v>
+        <v>1813.652935189855</v>
       </c>
       <c r="P22" t="n">
-        <v>1896.443943434684</v>
+        <v>1896.443943434683</v>
       </c>
       <c r="Q22" t="n">
         <v>2096.10462961766</v>
@@ -5937,25 +5937,25 @@
         <v>2088.874501954651</v>
       </c>
       <c r="S22" t="n">
-        <v>1934.168663327546</v>
+        <v>2088.874501954651</v>
       </c>
       <c r="T22" t="n">
-        <v>1694.612168011072</v>
+        <v>1849.318006638176</v>
       </c>
       <c r="U22" t="n">
-        <v>1414.476011244878</v>
+        <v>1569.181849871982</v>
       </c>
       <c r="V22" t="n">
-        <v>1132.764543852906</v>
+        <v>1569.181849871982</v>
       </c>
       <c r="W22" t="n">
-        <v>976.1494997000735</v>
+        <v>1294.329446044495</v>
       </c>
       <c r="X22" t="n">
-        <v>733.5856031458786</v>
+        <v>1051.7655494903</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.5856031458786</v>
+        <v>825.4227811800422</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>391.6845131122665</v>
+        <v>1418.059254521864</v>
       </c>
       <c r="C23" t="n">
-        <v>391.6845131122665</v>
+        <v>1418.059254521864</v>
       </c>
       <c r="D23" t="n">
-        <v>391.6845131122665</v>
+        <v>994.7666337068647</v>
       </c>
       <c r="E23" t="n">
-        <v>391.6845131122665</v>
+        <v>568.7896938547223</v>
       </c>
       <c r="F23" t="n">
-        <v>41.9220925923532</v>
+        <v>444.2874225113819</v>
       </c>
       <c r="G23" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H23" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I23" t="n">
-        <v>82.29775374785413</v>
+        <v>82.2977537478547</v>
       </c>
       <c r="J23" t="n">
-        <v>217.3564621562493</v>
+        <v>217.3564621562498</v>
       </c>
       <c r="K23" t="n">
-        <v>428.0194649169797</v>
+        <v>428.0194649169802</v>
       </c>
       <c r="L23" t="n">
-        <v>695.3620842405351</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M23" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306628</v>
       </c>
       <c r="N23" t="n">
         <v>1306.241396764578</v>
@@ -6013,28 +6013,28 @@
         <v>2009.271730617951</v>
       </c>
       <c r="R23" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S23" t="n">
-        <v>2036.713764641372</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T23" t="n">
-        <v>1824.428207667645</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U23" t="n">
-        <v>1566.231196863379</v>
+        <v>1837.907618813394</v>
       </c>
       <c r="V23" t="n">
-        <v>1208.741781989629</v>
+        <v>1837.907618813394</v>
       </c>
       <c r="W23" t="n">
-        <v>1208.741781989629</v>
+        <v>1837.907618813394</v>
       </c>
       <c r="X23" t="n">
-        <v>797.0217831573761</v>
+        <v>1837.907618813394</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.6845131122665</v>
+        <v>1837.907618813394</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G24" t="n">
-        <v>85.09906283098431</v>
+        <v>85.09906283098432</v>
       </c>
       <c r="H24" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I24" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J24" t="n">
-        <v>430.7270672914884</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K24" t="n">
-        <v>575.6856311272716</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L24" t="n">
-        <v>778.1277221400701</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M24" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.576683836778</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O24" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P24" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R24" t="n">
         <v>1815.413022142049</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>425.1822747591588</v>
+        <v>708.7912556920515</v>
       </c>
       <c r="C25" t="n">
-        <v>425.1822747591588</v>
+        <v>536.8186925709675</v>
       </c>
       <c r="D25" t="n">
-        <v>379.1554880760314</v>
+        <v>373.5019196977382</v>
       </c>
       <c r="E25" t="n">
-        <v>379.1554880760314</v>
+        <v>207.2937138505918</v>
       </c>
       <c r="F25" t="n">
         <v>207.2937138505918</v>
       </c>
       <c r="G25" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H25" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I25" t="n">
-        <v>41.9220925923532</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="J25" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K25" t="n">
-        <v>240.8213755078383</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L25" t="n">
-        <v>398.8701021339887</v>
+        <v>893.8793769001281</v>
       </c>
       <c r="M25" t="n">
-        <v>512.5410404728807</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N25" t="n">
-        <v>1022.81890876671</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O25" t="n">
-        <v>1500.896730616548</v>
+        <v>1597.873082540807</v>
       </c>
       <c r="P25" t="n">
-        <v>1896.443943434684</v>
+        <v>1993.420295358943</v>
       </c>
       <c r="Q25" t="n">
-        <v>2096.10462961766</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="R25" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S25" t="n">
-        <v>1934.168663327546</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T25" t="n">
-        <v>1694.612168011072</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.476011244878</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="V25" t="n">
-        <v>1132.764543852906</v>
+        <v>1574.836666909215</v>
       </c>
       <c r="W25" t="n">
-        <v>857.9121400254194</v>
+        <v>1299.984263081727</v>
       </c>
       <c r="X25" t="n">
-        <v>615.3482434712245</v>
+        <v>1057.420366527533</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.3482434712245</v>
+        <v>898.9572244041171</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>799.8081314724802</v>
+        <v>1676.25626532613</v>
       </c>
       <c r="C26" t="n">
-        <v>799.8081314724802</v>
+        <v>1249.355535339431</v>
       </c>
       <c r="D26" t="n">
-        <v>376.5155106574805</v>
+        <v>826.0629145244309</v>
       </c>
       <c r="E26" t="n">
-        <v>376.5155106574805</v>
+        <v>400.0859746722884</v>
       </c>
       <c r="F26" t="n">
-        <v>376.5155106574805</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G26" t="n">
-        <v>319.5769832395124</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H26" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I26" t="n">
-        <v>82.29775374785459</v>
+        <v>82.29775374785453</v>
       </c>
       <c r="J26" t="n">
-        <v>217.3564621562498</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K26" t="n">
-        <v>428.0194649169803</v>
+        <v>428.01946491698</v>
       </c>
       <c r="L26" t="n">
-        <v>695.3620842405358</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M26" t="n">
         <v>997.9785432306628</v>
@@ -6247,31 +6247,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q26" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R26" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T26" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U26" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V26" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W26" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X26" t="n">
-        <v>1624.99376580912</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y26" t="n">
-        <v>1219.65649576401</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I27" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J27" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K27" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L27" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M27" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N27" t="n">
-        <v>973.7789094713426</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O27" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P27" t="n">
         <v>1559.530945210204</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.447071312729</v>
+        <v>924.3498504461803</v>
       </c>
       <c r="C28" t="n">
-        <v>371.447071312729</v>
+        <v>752.3772873250963</v>
       </c>
       <c r="D28" t="n">
-        <v>208.1302984394997</v>
+        <v>589.060514451867</v>
       </c>
       <c r="E28" t="n">
-        <v>41.92209259235321</v>
+        <v>422.8523086047205</v>
       </c>
       <c r="F28" t="n">
-        <v>41.92209259235321</v>
+        <v>250.990534379281</v>
       </c>
       <c r="G28" t="n">
-        <v>41.92209259235321</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H28" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I28" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J28" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K28" t="n">
-        <v>240.8213755078383</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L28" t="n">
-        <v>348.129590843162</v>
+        <v>457.8848465937167</v>
       </c>
       <c r="M28" t="n">
-        <v>866.9154866735329</v>
+        <v>976.6707424240876</v>
       </c>
       <c r="N28" t="n">
-        <v>1377.193354967362</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O28" t="n">
-        <v>1500.896730616548</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P28" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q28" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R28" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S28" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T28" t="n">
-        <v>1694.612168011072</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U28" t="n">
-        <v>1414.476011244878</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V28" t="n">
-        <v>1132.764543852907</v>
+        <v>1814.393162225689</v>
       </c>
       <c r="W28" t="n">
-        <v>857.9121400254198</v>
+        <v>1539.540758398202</v>
       </c>
       <c r="X28" t="n">
-        <v>787.9558083350526</v>
+        <v>1296.976861844008</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.6130400247946</v>
+        <v>1114.515819158246</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1297.165092350224</v>
+        <v>1690.767359572551</v>
       </c>
       <c r="C29" t="n">
-        <v>870.2643623635244</v>
+        <v>1263.866629585851</v>
       </c>
       <c r="D29" t="n">
-        <v>870.2643623635244</v>
+        <v>840.5740087708509</v>
       </c>
       <c r="E29" t="n">
-        <v>444.2874225113819</v>
+        <v>840.5740087708509</v>
       </c>
       <c r="F29" t="n">
-        <v>444.2874225113819</v>
+        <v>415.4498269602511</v>
       </c>
       <c r="G29" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="H29" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="I29" t="n">
-        <v>82.2977537478545</v>
+        <v>82.29775374785453</v>
       </c>
       <c r="J29" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K29" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169796</v>
       </c>
       <c r="L29" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M29" t="n">
-        <v>997.9785432306628</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N29" t="n">
         <v>1306.241396764578</v>
@@ -6484,31 +6484,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q29" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R29" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="S29" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="T29" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="U29" t="n">
-        <v>1837.907618813394</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="V29" t="n">
-        <v>1837.907618813394</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="W29" t="n">
-        <v>1837.907618813394</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="X29" t="n">
-        <v>1426.187619981142</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="Y29" t="n">
-        <v>1426.187619981142</v>
+        <v>1690.767359572551</v>
       </c>
     </row>
     <row r="30">
@@ -6533,31 +6533,31 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G30" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098431</v>
       </c>
       <c r="H30" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="I30" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J30" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K30" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L30" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M30" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N30" t="n">
-        <v>973.7789094713426</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O30" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P30" t="n">
         <v>1559.530945210204</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>628.5619704774418</v>
+        <v>968.3261827487738</v>
       </c>
       <c r="C31" t="n">
-        <v>456.5894073563578</v>
+        <v>796.3536196276898</v>
       </c>
       <c r="D31" t="n">
-        <v>293.2726344831285</v>
+        <v>633.0368467544605</v>
       </c>
       <c r="E31" t="n">
-        <v>127.0644286359821</v>
+        <v>466.828640907314</v>
       </c>
       <c r="F31" t="n">
-        <v>41.92209259235321</v>
+        <v>294.9668666818744</v>
       </c>
       <c r="G31" t="n">
-        <v>41.92209259235321</v>
+        <v>250.990534379281</v>
       </c>
       <c r="H31" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I31" t="n">
-        <v>41.92209259235321</v>
+        <v>41.9220925923532</v>
       </c>
       <c r="J31" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K31" t="n">
-        <v>488.1039846218603</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L31" t="n">
-        <v>769.4903917875938</v>
+        <v>457.8848465937164</v>
       </c>
       <c r="M31" t="n">
-        <v>1288.276287617965</v>
+        <v>976.6707424240872</v>
       </c>
       <c r="N31" t="n">
-        <v>1400.521233069914</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O31" t="n">
-        <v>1500.896730616548</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P31" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2096.104629617661</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="R31" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.10462961766</v>
       </c>
       <c r="S31" t="n">
-        <v>1934.168663327547</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="T31" t="n">
-        <v>1934.168663327547</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="U31" t="n">
-        <v>1654.032506561353</v>
+        <v>1941.398790990556</v>
       </c>
       <c r="V31" t="n">
-        <v>1372.321039169382</v>
+        <v>1659.687323598584</v>
       </c>
       <c r="W31" t="n">
-        <v>1097.468635341895</v>
+        <v>1384.834919771097</v>
       </c>
       <c r="X31" t="n">
-        <v>854.9047387876998</v>
+        <v>1384.834919771097</v>
       </c>
       <c r="Y31" t="n">
-        <v>628.5619704774418</v>
+        <v>1158.49215146084</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1015.690068918246</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="C32" t="n">
-        <v>745.5539230916548</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="D32" t="n">
-        <v>745.5539230916548</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="E32" t="n">
-        <v>319.5769832395124</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="F32" t="n">
-        <v>319.5769832395124</v>
+        <v>721.9423131585411</v>
       </c>
       <c r="G32" t="n">
         <v>319.5769832395124</v>
@@ -6697,10 +6697,10 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I32" t="n">
-        <v>82.29775374785459</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J32" t="n">
-        <v>217.3564621562493</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K32" t="n">
         <v>428.0194649169797</v>
@@ -6709,7 +6709,7 @@
         <v>695.3620842405351</v>
       </c>
       <c r="M32" t="n">
-        <v>997.9785432306626</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N32" t="n">
         <v>1306.241396764578</v>
@@ -6721,7 +6721,7 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q32" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R32" t="n">
         <v>2096.104629617661</v>
@@ -6733,19 +6733,19 @@
         <v>2036.713764641373</v>
       </c>
       <c r="U32" t="n">
-        <v>1778.516753837107</v>
+        <v>1935.390931735557</v>
       </c>
       <c r="V32" t="n">
-        <v>1421.027338963356</v>
+        <v>1935.390931735557</v>
       </c>
       <c r="W32" t="n">
-        <v>1421.027338963356</v>
+        <v>1538.999582035904</v>
       </c>
       <c r="X32" t="n">
-        <v>1421.027338963356</v>
+        <v>1127.279583203651</v>
       </c>
       <c r="Y32" t="n">
-        <v>1015.690068918246</v>
+        <v>721.9423131585411</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I33" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J33" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K33" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L33" t="n">
-        <v>486.3299477746344</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M33" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N33" t="n">
-        <v>973.7789094713426</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O33" t="n">
-        <v>1197.097465261194</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P33" t="n">
         <v>1559.530945210204</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>205.2388654655825</v>
+        <v>609.9624184268102</v>
       </c>
       <c r="C34" t="n">
-        <v>205.2388654655825</v>
+        <v>609.9624184268102</v>
       </c>
       <c r="D34" t="n">
-        <v>41.92209259235321</v>
+        <v>446.6456455535809</v>
       </c>
       <c r="E34" t="n">
-        <v>41.92209259235321</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="F34" t="n">
-        <v>41.92209259235321</v>
+        <v>280.4374397064345</v>
       </c>
       <c r="G34" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H34" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I34" t="n">
         <v>41.92209259235321</v>
@@ -6861,49 +6861,49 @@
         <v>82.84021611732985</v>
       </c>
       <c r="K34" t="n">
-        <v>313.2059160493807</v>
+        <v>410.1822679736395</v>
       </c>
       <c r="L34" t="n">
-        <v>796.9030249758694</v>
+        <v>517.4904833089631</v>
       </c>
       <c r="M34" t="n">
-        <v>910.5739633147614</v>
+        <v>976.6707424240876</v>
       </c>
       <c r="N34" t="n">
-        <v>1022.818908766711</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O34" t="n">
-        <v>1500.896730616548</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P34" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q34" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S34" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T34" t="n">
-        <v>1694.612168011072</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U34" t="n">
-        <v>1414.476011244878</v>
+        <v>1815.968472851466</v>
       </c>
       <c r="V34" t="n">
-        <v>1132.764543852907</v>
+        <v>1534.257005459495</v>
       </c>
       <c r="W34" t="n">
-        <v>857.9121400254198</v>
+        <v>1269.035052003329</v>
       </c>
       <c r="X34" t="n">
-        <v>615.3482434712249</v>
+        <v>1026.471155449134</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.4048341776481</v>
+        <v>800.128387138876</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1145.234933973541</v>
+        <v>1287.993281085755</v>
       </c>
       <c r="C35" t="n">
-        <v>1145.234933973541</v>
+        <v>861.0925510990548</v>
       </c>
       <c r="D35" t="n">
-        <v>721.9423131585411</v>
+        <v>861.0925510990548</v>
       </c>
       <c r="E35" t="n">
-        <v>721.9423131585411</v>
+        <v>435.1156112469124</v>
       </c>
       <c r="F35" t="n">
-        <v>721.9423131585411</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G35" t="n">
-        <v>319.5769832395124</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H35" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="I35" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J35" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K35" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L35" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M35" t="n">
         <v>997.9785432306624</v>
@@ -6958,7 +6958,7 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q35" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R35" t="n">
         <v>2096.104629617661</v>
@@ -6970,19 +6970,19 @@
         <v>2096.104629617661</v>
       </c>
       <c r="U35" t="n">
-        <v>1914.444347679544</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V35" t="n">
-        <v>1556.954932805794</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W35" t="n">
-        <v>1556.954932805794</v>
+        <v>1699.713279918007</v>
       </c>
       <c r="X35" t="n">
-        <v>1145.234933973541</v>
+        <v>1287.993281085755</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.234933973541</v>
+        <v>1287.993281085755</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I36" t="n">
-        <v>61.54715157330345</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J36" t="n">
-        <v>430.7270672914884</v>
+        <v>325.2715670065825</v>
       </c>
       <c r="K36" t="n">
-        <v>575.6856311272716</v>
+        <v>470.2301308423656</v>
       </c>
       <c r="L36" t="n">
-        <v>778.1277221400701</v>
+        <v>672.6722218551643</v>
       </c>
       <c r="M36" t="n">
-        <v>1017.513584853441</v>
+        <v>912.0580845685354</v>
       </c>
       <c r="N36" t="n">
-        <v>1265.576683836778</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O36" t="n">
-        <v>1488.89523962663</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P36" t="n">
-        <v>1664.98644549511</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q36" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R36" t="n">
         <v>1815.413022142049</v>
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>486.2057908781046</v>
+        <v>715.2814086592525</v>
       </c>
       <c r="C37" t="n">
-        <v>314.2332277570206</v>
+        <v>543.3088455381685</v>
       </c>
       <c r="D37" t="n">
-        <v>314.2332277570206</v>
+        <v>379.9920726649392</v>
       </c>
       <c r="E37" t="n">
-        <v>148.0250219098741</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F37" t="n">
-        <v>148.0250219098741</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="G37" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="H37" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235321</v>
       </c>
       <c r="I37" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J37" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K37" t="n">
-        <v>488.1039846218603</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L37" t="n">
-        <v>971.8010935483489</v>
+        <v>646.5967677861062</v>
       </c>
       <c r="M37" t="n">
-        <v>1085.472031887241</v>
+        <v>976.6707424240876</v>
       </c>
       <c r="N37" t="n">
-        <v>1595.749900181071</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O37" t="n">
         <v>1965.026432567754</v>
@@ -7128,19 +7128,19 @@
         <v>1701.842295674081</v>
       </c>
       <c r="U37" t="n">
-        <v>1701.842295674081</v>
+        <v>1656.065509627742</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.13082828211</v>
+        <v>1374.354042235771</v>
       </c>
       <c r="W37" t="n">
-        <v>1145.278424454623</v>
+        <v>1374.354042235771</v>
       </c>
       <c r="X37" t="n">
-        <v>902.7145279004282</v>
+        <v>1131.790145681576</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.3717595901702</v>
+        <v>905.4473773713182</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>400.6304334577234</v>
+        <v>871.1881524980818</v>
       </c>
       <c r="C38" t="n">
-        <v>41.92209259235321</v>
+        <v>444.2874225113819</v>
       </c>
       <c r="D38" t="n">
-        <v>41.92209259235321</v>
+        <v>444.2874225113819</v>
       </c>
       <c r="E38" t="n">
-        <v>41.92209259235321</v>
+        <v>444.2874225113819</v>
       </c>
       <c r="F38" t="n">
-        <v>41.92209259235321</v>
+        <v>444.2874225113819</v>
       </c>
       <c r="G38" t="n">
         <v>41.92209259235321</v>
@@ -7171,22 +7171,22 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I38" t="n">
-        <v>82.29775374785447</v>
+        <v>82.29775374785413</v>
       </c>
       <c r="J38" t="n">
-        <v>217.3564621562496</v>
+        <v>217.3564621562491</v>
       </c>
       <c r="K38" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169797</v>
       </c>
       <c r="L38" t="n">
-        <v>695.3620842405352</v>
+        <v>695.3620842405351</v>
       </c>
       <c r="M38" t="n">
-        <v>997.9785432306621</v>
+        <v>997.9785432306624</v>
       </c>
       <c r="N38" t="n">
-        <v>1306.241396764577</v>
+        <v>1306.241396764578</v>
       </c>
       <c r="O38" t="n">
         <v>1595.158288098558</v>
@@ -7195,31 +7195,31 @@
         <v>1836.135757884009</v>
       </c>
       <c r="Q38" t="n">
-        <v>2009.271730617952</v>
+        <v>2009.271730617951</v>
       </c>
       <c r="R38" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="S38" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T38" t="n">
-        <v>1824.428207667646</v>
+        <v>1960.95352642613</v>
       </c>
       <c r="U38" t="n">
-        <v>1566.23119686338</v>
+        <v>1702.756515621865</v>
       </c>
       <c r="V38" t="n">
-        <v>1208.741781989629</v>
+        <v>1702.756515621865</v>
       </c>
       <c r="W38" t="n">
-        <v>812.3504322899762</v>
+        <v>1702.756515621865</v>
       </c>
       <c r="X38" t="n">
-        <v>400.6304334577234</v>
+        <v>1291.036516789612</v>
       </c>
       <c r="Y38" t="n">
-        <v>400.6304334577234</v>
+        <v>1291.036516789612</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>41.92209259235321</v>
       </c>
       <c r="I39" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771529</v>
       </c>
       <c r="J39" t="n">
-        <v>138.9292929260527</v>
+        <v>162.3865987704646</v>
       </c>
       <c r="K39" t="n">
-        <v>283.8878567618358</v>
+        <v>307.3451626062476</v>
       </c>
       <c r="L39" t="n">
-        <v>486.3299477746343</v>
+        <v>509.7872536190463</v>
       </c>
       <c r="M39" t="n">
-        <v>725.7158104880054</v>
+        <v>749.1731163324174</v>
       </c>
       <c r="N39" t="n">
-        <v>973.7789094713426</v>
+        <v>997.2362153157546</v>
       </c>
       <c r="O39" t="n">
-        <v>1488.89523962663</v>
+        <v>1220.554771105606</v>
       </c>
       <c r="P39" t="n">
-        <v>1664.98644549511</v>
+        <v>1396.645976974087</v>
       </c>
       <c r="Q39" t="n">
-        <v>1774.586883845564</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R39" t="n">
         <v>1815.413022142049</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549.073202812106</v>
+        <v>826.6747363657478</v>
       </c>
       <c r="C40" t="n">
-        <v>377.1006396910221</v>
+        <v>654.7021732446638</v>
       </c>
       <c r="D40" t="n">
-        <v>213.7838668177928</v>
+        <v>491.3854003714345</v>
       </c>
       <c r="E40" t="n">
-        <v>213.7838668177928</v>
+        <v>325.177194524288</v>
       </c>
       <c r="F40" t="n">
-        <v>41.92209259235321</v>
+        <v>153.3154202988484</v>
       </c>
       <c r="G40" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="H40" t="n">
-        <v>41.92209259235321</v>
+        <v>115.0658184481959</v>
       </c>
       <c r="I40" t="n">
         <v>41.92209259235321</v>
       </c>
       <c r="J40" t="n">
-        <v>160.7619327655507</v>
+        <v>82.84021611732985</v>
       </c>
       <c r="K40" t="n">
-        <v>488.1039846218603</v>
+        <v>162.8996588596175</v>
       </c>
       <c r="L40" t="n">
-        <v>971.8010935483489</v>
+        <v>646.5967677861062</v>
       </c>
       <c r="M40" t="n">
-        <v>1085.472031887241</v>
+        <v>1165.382663616477</v>
       </c>
       <c r="N40" t="n">
-        <v>1335.575113340018</v>
+        <v>1486.948610717917</v>
       </c>
       <c r="O40" t="n">
-        <v>1813.652935189855</v>
+        <v>1965.026432567754</v>
       </c>
       <c r="P40" t="n">
-        <v>1896.443943434684</v>
+        <v>2047.817440812583</v>
       </c>
       <c r="Q40" t="n">
         <v>2096.104629617661</v>
       </c>
       <c r="R40" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S40" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.709707608083</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.709707608083</v>
+        <v>1815.968472851466</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.998240216112</v>
+        <v>1534.257005459495</v>
       </c>
       <c r="W40" t="n">
-        <v>1208.145836388625</v>
+        <v>1259.404601632008</v>
       </c>
       <c r="X40" t="n">
-        <v>965.5819398344297</v>
+        <v>1016.840705077813</v>
       </c>
       <c r="Y40" t="n">
-        <v>739.2391715241718</v>
+        <v>1016.840705077813</v>
       </c>
     </row>
     <row r="41">
@@ -7399,37 +7399,37 @@
         <v>467.046274402953</v>
       </c>
       <c r="F41" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="G41" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H41" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I41" t="n">
-        <v>82.2977537478545</v>
+        <v>82.29775374785447</v>
       </c>
       <c r="J41" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K41" t="n">
-        <v>428.0194649169799</v>
+        <v>428.0194649169801</v>
       </c>
       <c r="L41" t="n">
-        <v>695.3620842405353</v>
+        <v>695.3620842405355</v>
       </c>
       <c r="M41" t="n">
-        <v>997.9785432306624</v>
+        <v>997.9785432306627</v>
       </c>
       <c r="N41" t="n">
         <v>1306.241396764578</v>
       </c>
       <c r="O41" t="n">
-        <v>1595.158288098557</v>
+        <v>1595.158288098558</v>
       </c>
       <c r="P41" t="n">
-        <v>1836.135757884009</v>
+        <v>1836.13575788401</v>
       </c>
       <c r="Q41" t="n">
         <v>2009.271730617952</v>
@@ -7441,22 +7441,22 @@
         <v>2036.713764641373</v>
       </c>
       <c r="T41" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="U41" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="V41" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="W41" t="n">
-        <v>1824.428207667646</v>
+        <v>2036.713764641373</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.261214286905</v>
+        <v>1739.772308533325</v>
       </c>
       <c r="Y41" t="n">
-        <v>1319.923944241795</v>
+        <v>1739.772308533325</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>178.0967946298265</v>
       </c>
       <c r="G42" t="n">
-        <v>85.09906283098432</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H42" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I42" t="n">
-        <v>61.54715157330344</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J42" t="n">
-        <v>138.9292929260527</v>
+        <v>325.2715670065822</v>
       </c>
       <c r="K42" t="n">
-        <v>283.8878567618358</v>
+        <v>470.2301308423654</v>
       </c>
       <c r="L42" t="n">
-        <v>486.3299477746343</v>
+        <v>672.672221855164</v>
       </c>
       <c r="M42" t="n">
-        <v>725.7158104880054</v>
+        <v>912.0580845685353</v>
       </c>
       <c r="N42" t="n">
-        <v>1244.501706318376</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O42" t="n">
-        <v>1467.820262108228</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P42" t="n">
-        <v>1643.911467976708</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q42" t="n">
-        <v>1753.511906327162</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R42" t="n">
         <v>1815.413022142049</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1075.216805397247</v>
+        <v>638.7994993781715</v>
       </c>
       <c r="C43" t="n">
-        <v>903.2442422761626</v>
+        <v>638.7994993781715</v>
       </c>
       <c r="D43" t="n">
-        <v>754.4321357101056</v>
+        <v>475.4827265049422</v>
       </c>
       <c r="E43" t="n">
-        <v>588.2239298629592</v>
+        <v>309.2745206577957</v>
       </c>
       <c r="F43" t="n">
-        <v>416.3621556375195</v>
+        <v>309.2745206577957</v>
       </c>
       <c r="G43" t="n">
-        <v>250.990534379281</v>
+        <v>177.8468085234383</v>
       </c>
       <c r="H43" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I43" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J43" t="n">
-        <v>82.84021611732985</v>
+        <v>82.84021611732987</v>
       </c>
       <c r="K43" t="n">
-        <v>162.8996588596174</v>
+        <v>410.1822679736396</v>
       </c>
       <c r="L43" t="n">
-        <v>646.5967677861061</v>
+        <v>893.8793769001282</v>
       </c>
       <c r="M43" t="n">
-        <v>1165.382663616477</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N43" t="n">
-        <v>1277.627609068426</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O43" t="n">
-        <v>1755.705430918264</v>
+        <v>1500.896730616548</v>
       </c>
       <c r="P43" t="n">
         <v>1896.443943434684</v>
@@ -7596,25 +7596,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S43" t="n">
-        <v>2096.104629617661</v>
+        <v>1941.398790990557</v>
       </c>
       <c r="T43" t="n">
-        <v>1856.548134301186</v>
+        <v>1701.842295674082</v>
       </c>
       <c r="U43" t="n">
-        <v>1576.411977534992</v>
+        <v>1421.706138907888</v>
       </c>
       <c r="V43" t="n">
-        <v>1576.411977534992</v>
+        <v>1139.994671515916</v>
       </c>
       <c r="W43" t="n">
-        <v>1301.559573707505</v>
+        <v>865.1422676884295</v>
       </c>
       <c r="X43" t="n">
-        <v>1301.559573707505</v>
+        <v>865.1422676884295</v>
       </c>
       <c r="Y43" t="n">
-        <v>1075.216805397247</v>
+        <v>638.7994993781715</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1573.967224955841</v>
+        <v>1676.256265326131</v>
       </c>
       <c r="C44" t="n">
-        <v>1147.066494969141</v>
+        <v>1249.355535339431</v>
       </c>
       <c r="D44" t="n">
-        <v>1147.066494969141</v>
+        <v>1249.355535339431</v>
       </c>
       <c r="E44" t="n">
-        <v>1147.066494969141</v>
+        <v>823.3785954872886</v>
       </c>
       <c r="F44" t="n">
-        <v>721.9423131585411</v>
+        <v>398.2544136766888</v>
       </c>
       <c r="G44" t="n">
-        <v>319.5769832395124</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H44" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I44" t="n">
-        <v>82.2977537478545</v>
+        <v>82.29775374785456</v>
       </c>
       <c r="J44" t="n">
-        <v>217.3564621562495</v>
+        <v>217.3564621562496</v>
       </c>
       <c r="K44" t="n">
-        <v>428.0194649169809</v>
+        <v>428.0194649169802</v>
       </c>
       <c r="L44" t="n">
-        <v>695.3620842405362</v>
+        <v>695.3620842405356</v>
       </c>
       <c r="M44" t="n">
-        <v>997.9785432306633</v>
+        <v>997.9785432306629</v>
       </c>
       <c r="N44" t="n">
         <v>1306.241396764578</v>
@@ -7675,25 +7675,25 @@
         <v>2096.104629617661</v>
       </c>
       <c r="S44" t="n">
-        <v>2036.713764641373</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T44" t="n">
-        <v>1824.428207667646</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="U44" t="n">
-        <v>1573.967224955841</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="V44" t="n">
-        <v>1573.967224955841</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="W44" t="n">
-        <v>1573.967224955841</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="X44" t="n">
-        <v>1573.967224955841</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="Y44" t="n">
-        <v>1573.967224955841</v>
+        <v>2096.104629617661</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>878.4820281168066</v>
+        <v>597.7904206411953</v>
       </c>
       <c r="C45" t="n">
-        <v>760.9761246343114</v>
+        <v>480.2845171587001</v>
       </c>
       <c r="D45" t="n">
-        <v>657.1361661495964</v>
+        <v>376.4445586739851</v>
       </c>
       <c r="E45" t="n">
-        <v>552.4342324225337</v>
+        <v>271.7426249469223</v>
       </c>
       <c r="F45" t="n">
-        <v>458.7884021054379</v>
+        <v>178.0967946298265</v>
       </c>
       <c r="G45" t="n">
-        <v>365.7906703065957</v>
+        <v>85.09906283098434</v>
       </c>
       <c r="H45" t="n">
-        <v>322.6137000679646</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I45" t="n">
-        <v>342.2387590489149</v>
+        <v>85.00445741771532</v>
       </c>
       <c r="J45" t="n">
-        <v>419.6209004016641</v>
+        <v>325.2715670065822</v>
       </c>
       <c r="K45" t="n">
-        <v>564.5794642374472</v>
+        <v>470.2301308423654</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.819329615681</v>
+        <v>672.672221855164</v>
       </c>
       <c r="M45" t="n">
-        <v>1298.205192329052</v>
+        <v>912.0580845685353</v>
       </c>
       <c r="N45" t="n">
-        <v>1546.268291312389</v>
+        <v>1160.121183551872</v>
       </c>
       <c r="O45" t="n">
-        <v>1769.586847102241</v>
+        <v>1383.439739341724</v>
       </c>
       <c r="P45" t="n">
-        <v>1945.678052970721</v>
+        <v>1559.530945210204</v>
       </c>
       <c r="Q45" t="n">
-        <v>2055.278491321175</v>
+        <v>1669.131383560658</v>
       </c>
       <c r="R45" t="n">
-        <v>2096.104629617661</v>
+        <v>1815.413022142049</v>
       </c>
       <c r="S45" t="n">
-        <v>2034.395861697996</v>
+        <v>1753.704254222385</v>
       </c>
       <c r="T45" t="n">
-        <v>1896.772508210086</v>
+        <v>1616.080900734475</v>
       </c>
       <c r="U45" t="n">
-        <v>1712.073788444431</v>
+        <v>1431.382180968819</v>
       </c>
       <c r="V45" t="n">
-        <v>1507.100649583697</v>
+        <v>1226.409042108085</v>
       </c>
       <c r="W45" t="n">
-        <v>1310.579272416914</v>
+        <v>1029.887664941303</v>
       </c>
       <c r="X45" t="n">
-        <v>1147.101926183577</v>
+        <v>866.4103187079656</v>
       </c>
       <c r="Y45" t="n">
-        <v>1007.409037536869</v>
+        <v>726.717430061258</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>754.4321357101056</v>
+        <v>385.7564299388767</v>
       </c>
       <c r="C46" t="n">
-        <v>754.4321357101056</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="D46" t="n">
-        <v>754.4321357101056</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="E46" t="n">
-        <v>588.2239298629592</v>
+        <v>213.7838668177928</v>
       </c>
       <c r="F46" t="n">
-        <v>416.3621556375195</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="G46" t="n">
-        <v>250.990534379281</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="H46" t="n">
-        <v>115.0658184481959</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="I46" t="n">
-        <v>41.92209259235321</v>
+        <v>41.92209259235322</v>
       </c>
       <c r="J46" t="n">
-        <v>82.84021611732985</v>
+        <v>82.84021611732987</v>
       </c>
       <c r="K46" t="n">
-        <v>313.2059160493807</v>
+        <v>410.1822679736396</v>
       </c>
       <c r="L46" t="n">
-        <v>796.9030249758694</v>
+        <v>893.8793769001282</v>
       </c>
       <c r="M46" t="n">
-        <v>910.5739633147614</v>
+        <v>1007.55031523902</v>
       </c>
       <c r="N46" t="n">
-        <v>1022.818908766711</v>
+        <v>1119.79526069097</v>
       </c>
       <c r="O46" t="n">
         <v>1500.896730616548</v>
@@ -7830,28 +7830,28 @@
         <v>2096.104629617661</v>
       </c>
       <c r="R46" t="n">
-        <v>2088.874501954651</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="S46" t="n">
-        <v>1934.168663327547</v>
+        <v>2096.104629617661</v>
       </c>
       <c r="T46" t="n">
-        <v>1694.612168011072</v>
+        <v>1856.548134301186</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.338775239822</v>
+        <v>1576.411977534992</v>
       </c>
       <c r="V46" t="n">
-        <v>1255.62730784785</v>
+        <v>1294.700510143021</v>
       </c>
       <c r="W46" t="n">
-        <v>980.7749040203636</v>
+        <v>1019.848106315534</v>
       </c>
       <c r="X46" t="n">
-        <v>980.7749040203636</v>
+        <v>802.2651669612003</v>
       </c>
       <c r="Y46" t="n">
-        <v>754.4321357101056</v>
+        <v>575.9223986509423</v>
       </c>
     </row>
   </sheetData>
@@ -8768,19 +8768,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>294.7452266317532</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>21.28785607919392</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>273.4573705525594</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>122.8082760499488</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>409.2070277691707</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>54.94661156933348</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>294.7452266317532</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.2245192732626</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>36.67017678876402</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>44.09947135477626</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>409.2070277691707</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>152.9025226039384</v>
@@ -9242,7 +9242,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>271.0509783040648</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9330,19 +9330,19 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>27.25708309632786</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>54.94661156933348</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>273.4573705525594</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>21.28785607919389</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>36.67017678876368</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>52.57973939683339</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>152.9025226039384</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>294.7452266317533</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>51.25304170790574</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>54.94661156933348</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>188.2245192732625</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>189.5726993927025</v>
       </c>
       <c r="M28" t="n">
-        <v>409.2070277691706</v>
+        <v>409.2070277691707</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>23.56351323490065</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.2245192732625</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>175.8365574044544</v>
+        <v>189.5726993927022</v>
       </c>
       <c r="M31" t="n">
-        <v>409.2070277691707</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.2245192732625</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,25 +10509,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>151.8245022118821</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>348.9993139153863</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>294.7452266317533</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,22 +10743,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>218.5889255546358</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>271.6172069091413</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>294.7452266317534</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>164.5302709455736</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>409.2070277691706</v>
       </c>
       <c r="N40" t="n">
-        <v>139.2506424250788</v>
+        <v>211.4353552015057</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>164.5302709455734</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>273.4573705525595</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.28785607919413</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>409.2070277691706</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>283.56158826156</v>
       </c>
       <c r="P43" t="n">
-        <v>58.53283259756766</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>164.5302709455734</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>294.7452266317531</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>151.8245022118821</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>283.56158826156</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.9968805664628</v>
+        <v>14.90850907487276</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>21.89035111309089</v>
       </c>
       <c r="D8" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>20.97579887987904</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.13156841875178</v>
+        <v>20.30252834925743</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08258843891560583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.861427270188237</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>0.5425257709165905</v>
       </c>
     </row>
     <row r="9">
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>362.2245176628317</v>
       </c>
       <c r="E11" t="n">
-        <v>195.9779318862284</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.79695632652504</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.1627014039893</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.534145867607243</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>192.2947007523298</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,16 +23500,16 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>111.3918131624258</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>255.6150406962232</v>
       </c>
       <c r="V14" t="n">
-        <v>35.91871885684554</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.8351287371716</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.5654687717742</v>
+        <v>57.78728818715504</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S16" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.16093036331</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23734,10 +23734,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23749,7 +23749,7 @@
         <v>398.3416766198384</v>
       </c>
       <c r="H17" t="n">
-        <v>274.8783417406876</v>
+        <v>115.2192700644177</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.79695632652505</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.1627014039893</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>209.532817912841</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>122.6520187724173</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I19" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>251.0347914148309</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>74.60814367777959</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3416766198384</v>
+        <v>379.2479768135597</v>
       </c>
       <c r="H20" t="n">
-        <v>274.8783417406876</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>97.10957983045796</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>117.0549860779076</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>74.60814367777959</v>
+        <v>297.6156913625868</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>274.8783417406876</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>116.1170863282008</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>67.20082992497402</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>66.29069673335789</v>
       </c>
       <c r="G26" t="n">
-        <v>341.97253447605</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T26" t="n">
         <v>210.1627014039893</v>
@@ -24508,10 +24508,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.7179050456562</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>170.8814892151893</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>43.44290836825135</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.9175782940064</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>28.54921959561949</v>
       </c>
       <c r="H29" t="n">
         <v>274.8783417406876</v>
@@ -24736,7 +24736,7 @@
         <v>210.1627014039893</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -24745,10 +24745,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>85.85224379999262</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7179050456562</v>
+        <v>120.1813360660887</v>
       </c>
       <c r="H31" t="n">
-        <v>134.5654687717742</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>237.16093036331</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3347951985322</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>155.1969383185073</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,16 +24973,16 @@
         <v>210.1627014039893</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>155.3054361194656</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7179050456562</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I34" t="n">
-        <v>72.41228859728429</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>9.534145867607208</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>6.335365426514358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,22 +25156,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>31.61135652448019</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.3416766198384</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>210.1627014039893</v>
       </c>
       <c r="U35" t="n">
-        <v>75.77136157748799</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131.0882936185947</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H37" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.157826386379092</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3347951985322</v>
+        <v>232.0157770126564</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>67.51046523011632</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25405,7 +25405,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3416766198384</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.8783417406876</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.79695632652504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>76.36310924437447</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7179050456562</v>
+        <v>125.8507992135102</v>
       </c>
       <c r="H40" t="n">
         <v>134.5654687717742</v>
       </c>
       <c r="I40" t="n">
-        <v>72.4122885972843</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.157826386379085</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T40" t="n">
-        <v>69.39656420104043</v>
+        <v>237.16093036331</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3347951985322</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U41" t="n">
         <v>255.6150406962232</v>
@@ -25693,10 +25693,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>309.427475396997</v>
+        <v>113.6307572969632</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>14.3596196441006</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33.6044700326423</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>7.157826386379099</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S43" t="n">
-        <v>153.1587802408334</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,16 +25873,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>45.57267874634618</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.8783417406876</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.79695632652503</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.1627014039893</v>
       </c>
       <c r="U44" t="n">
-        <v>7.658667811536134</v>
+        <v>255.6150406962232</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7179050456562</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5654687717742</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.41228859728429</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.157826386379078</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.1587802408334</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>121.6341363549942</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>24.7311476278627</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>602703.3507447173</v>
+        <v>602703.3507447172</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>382246.817216869</v>
+        <v>382246.8172168689</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>382246.8172168689</v>
+        <v>382246.817216869</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>382246.8172168689</v>
+        <v>382246.817216869</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>382246.8172168689</v>
+        <v>382246.817216869</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>382246.817216869</v>
+        <v>382246.8172168689</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>382246.817216869</v>
+        <v>382246.8172168689</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>382246.817216869</v>
+        <v>382246.8172168691</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>382246.8172168689</v>
+        <v>382246.8172168691</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401641.6894811961</v>
+        <v>401641.6894811962</v>
       </c>
       <c r="C2" t="n">
         <v>401641.6894811961</v>
       </c>
       <c r="D2" t="n">
-        <v>401802.2338298116</v>
+        <v>401802.2338298117</v>
       </c>
       <c r="E2" t="n">
         <v>235800.5389686777</v>
       </c>
       <c r="F2" t="n">
+        <v>235800.5389686777</v>
+      </c>
+      <c r="G2" t="n">
+        <v>235800.5389686777</v>
+      </c>
+      <c r="H2" t="n">
         <v>235800.5389686776</v>
-      </c>
-      <c r="G2" t="n">
-        <v>235800.5389686776</v>
-      </c>
-      <c r="H2" t="n">
-        <v>235800.5389686777</v>
       </c>
       <c r="I2" t="n">
         <v>235800.5389686777</v>
       </c>
       <c r="J2" t="n">
-        <v>235800.5389686777</v>
+        <v>235800.5389686776</v>
       </c>
       <c r="K2" t="n">
         <v>235800.5389686776</v>
@@ -26349,13 +26349,13 @@
         <v>235800.5389686777</v>
       </c>
       <c r="N2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="O2" t="n">
-        <v>235800.5389686775</v>
+        <v>235800.5389686777</v>
       </c>
       <c r="P2" t="n">
-        <v>235800.5389686776</v>
+        <v>235800.5389686777</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50079.88112084009</v>
+        <v>50079.88112084008</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>1115.425831848459</v>
       </c>
       <c r="E3" t="n">
-        <v>504156.4521065352</v>
+        <v>504156.4521065353</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>187.6344729699277</v>
+        <v>187.6344729699547</v>
       </c>
       <c r="M3" t="n">
         <v>130404.6617681471</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309806.3511207717</v>
+        <v>309806.3511207718</v>
       </c>
       <c r="C4" t="n">
         <v>309806.3511207717</v>
@@ -26426,37 +26426,37 @@
         <v>309562.4999443738</v>
       </c>
       <c r="E4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089617</v>
       </c>
       <c r="F4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089617</v>
       </c>
       <c r="G4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089617</v>
       </c>
       <c r="H4" t="n">
+        <v>28982.38653089615</v>
+      </c>
+      <c r="I4" t="n">
         <v>28982.38653089617</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>28982.38653089616</v>
       </c>
-      <c r="J4" t="n">
-        <v>28982.38653089618</v>
-      </c>
       <c r="K4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="L4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="M4" t="n">
-        <v>28982.38653089617</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="N4" t="n">
-        <v>28982.38653089618</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="O4" t="n">
-        <v>28982.38653089619</v>
+        <v>28982.38653089616</v>
       </c>
       <c r="P4" t="n">
         <v>28982.38653089616</v>
@@ -26508,10 +26508,10 @@
         <v>42456.81765990867</v>
       </c>
       <c r="O5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
       <c r="P5" t="n">
-        <v>42456.81765990867</v>
+        <v>42456.81765990869</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6994.890573054981</v>
+        <v>6973.21850831706</v>
       </c>
       <c r="C6" t="n">
-        <v>57074.77169389507</v>
+        <v>57053.09962915709</v>
       </c>
       <c r="D6" t="n">
-        <v>56296.13493908618</v>
+        <v>56275.036247022</v>
       </c>
       <c r="E6" t="n">
-        <v>-339795.1173286624</v>
+        <v>-340409.0792166594</v>
       </c>
       <c r="F6" t="n">
-        <v>164361.3347778728</v>
+        <v>163747.3728898759</v>
       </c>
       <c r="G6" t="n">
-        <v>164361.3347778727</v>
+        <v>163747.372889876</v>
       </c>
       <c r="H6" t="n">
-        <v>164361.3347778729</v>
+        <v>163747.3728898759</v>
       </c>
       <c r="I6" t="n">
-        <v>164361.3347778729</v>
+        <v>163747.372889876</v>
       </c>
       <c r="J6" t="n">
-        <v>164361.3347778728</v>
+        <v>163747.3728898759</v>
       </c>
       <c r="K6" t="n">
-        <v>164361.3347778728</v>
+        <v>163747.3728898759</v>
       </c>
       <c r="L6" t="n">
-        <v>164173.700304903</v>
+        <v>163559.738416906</v>
       </c>
       <c r="M6" t="n">
-        <v>33956.67300972577</v>
+        <v>33342.71112172893</v>
       </c>
       <c r="N6" t="n">
-        <v>164361.3347778727</v>
+        <v>163747.372889876</v>
       </c>
       <c r="O6" t="n">
-        <v>164361.3347778727</v>
+        <v>163747.3728898759</v>
       </c>
       <c r="P6" t="n">
-        <v>164361.3347778727</v>
+        <v>163747.372889876</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>53.00448269814503</v>
       </c>
       <c r="E3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="F3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="G3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="H3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="I3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="J3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="K3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="L3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0562976935887</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="N3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935888</v>
       </c>
       <c r="O3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935889</v>
       </c>
       <c r="P3" t="n">
-        <v>486.0562976935886</v>
+        <v>486.0562976935889</v>
       </c>
     </row>
     <row r="4">
@@ -26810,13 +26810,13 @@
         <v>524.026157404415</v>
       </c>
       <c r="I4" t="n">
-        <v>524.026157404415</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="J4" t="n">
         <v>524.0261574044151</v>
       </c>
       <c r="K4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.026157404415</v>
       </c>
       <c r="L4" t="n">
         <v>524.0261574044151</v>
@@ -26828,10 +26828,10 @@
         <v>524.0261574044151</v>
       </c>
       <c r="O4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
       <c r="P4" t="n">
-        <v>524.0261574044151</v>
+        <v>524.0261574044152</v>
       </c>
     </row>
   </sheetData>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7413715737419651</v>
+        <v>0.7413715737420716</v>
       </c>
       <c r="M4" t="n">
-        <v>523.2847858306732</v>
+        <v>523.2847858306731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>292.7074549078116</v>
+        <v>293.4488264815535</v>
       </c>
       <c r="I8" t="n">
-        <v>27.04442395502635</v>
+        <v>26.33300678830426</v>
       </c>
       <c r="J8" t="n">
         <v>11.33477671814256</v>
@@ -27894,10 +27894,10 @@
         <v>1.488812484839848</v>
       </c>
       <c r="P8" t="n">
-        <v>6.933710081199632</v>
+        <v>7.645127247921719</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.85544183273475</v>
+        <v>13.11407025899278</v>
       </c>
       <c r="R8" t="n">
         <v>21.64755306550058</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>126.9847392437102</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>115.5894728739283</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
-        <v>102.0601873261259</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E9" t="n">
         <v>103.6549143897921</v>
@@ -27949,16 +27949,16 @@
         <v>92.99922442254206</v>
       </c>
       <c r="H9" t="n">
-        <v>51.74123918360299</v>
+        <v>51.08823910145107</v>
       </c>
       <c r="I9" t="n">
-        <v>12.24705477659964</v>
+        <v>11.50568320285767</v>
       </c>
       <c r="J9" t="n">
         <v>9.839703372948977</v>
       </c>
       <c r="K9" t="n">
-        <v>3.989176856940833</v>
+        <v>3.247805283198868</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -27976,7 +27976,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.19380749231045</v>
+        <v>7.452435918568485</v>
       </c>
       <c r="R9" t="n">
         <v>16.59432074249376</v>
@@ -28000,7 +28000,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>137.5545881864986</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -31612,13 +31612,13 @@
         <v>23.25645828797152</v>
       </c>
       <c r="M9" t="n">
-        <v>23.80819767905007</v>
+        <v>23.83815208606994</v>
       </c>
       <c r="N9" t="n">
         <v>22.08439978728363</v>
       </c>
       <c r="O9" t="n">
-        <v>23.91326129596419</v>
+        <v>23.88330688894431</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -31764,7 +31764,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K11" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L11" t="n">
         <v>308.355092254396</v>
@@ -31773,7 +31773,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N11" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O11" t="n">
         <v>329.2262031277212</v>
@@ -31791,7 +31791,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T11" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U11" t="n">
         <v>0.1563196133285912</v>
@@ -31840,19 +31840,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J12" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K12" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L12" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M12" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N12" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O12" t="n">
         <v>248.7461884998501</v>
@@ -31864,10 +31864,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R12" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S12" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T12" t="n">
         <v>4.214016392267999</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H13" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I13" t="n">
         <v>26.35859397984249</v>
@@ -31940,10 +31940,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R13" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S13" t="n">
         <v>15.2749167652231</v>
@@ -31952,7 +31952,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,7 +32001,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K14" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L14" t="n">
         <v>308.355092254396</v>
@@ -32010,7 +32010,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N14" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O14" t="n">
         <v>329.2262031277212</v>
@@ -32028,7 +32028,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T14" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U14" t="n">
         <v>0.1563196133285912</v>
@@ -32077,19 +32077,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J15" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K15" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L15" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M15" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N15" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O15" t="n">
         <v>248.7461884998501</v>
@@ -32101,10 +32101,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R15" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S15" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T15" t="n">
         <v>4.214016392267999</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H16" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I16" t="n">
         <v>26.35859397984249</v>
@@ -32177,10 +32177,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R16" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S16" t="n">
         <v>15.2749167652231</v>
@@ -32189,7 +32189,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,31 +32232,31 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I17" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J17" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K17" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L17" t="n">
         <v>308.355092254396</v>
       </c>
       <c r="M17" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N17" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O17" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P17" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q17" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R17" t="n">
         <v>122.7426488844016</v>
@@ -32265,7 +32265,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T17" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U17" t="n">
         <v>0.1563196133285912</v>
@@ -32311,43 +32311,43 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J18" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K18" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L18" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M18" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N18" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O18" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P18" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q18" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R18" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S18" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T18" t="n">
         <v>4.214016392267999</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H19" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I19" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J19" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K19" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M19" t="n">
         <v>137.3945695267303</v>
@@ -32414,10 +32414,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R19" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S19" t="n">
         <v>15.2749167652231</v>
@@ -32426,7 +32426,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32475,7 +32475,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K20" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L20" t="n">
         <v>308.355092254396</v>
@@ -32484,7 +32484,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N20" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O20" t="n">
         <v>329.2262031277212</v>
@@ -32502,7 +32502,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T20" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U20" t="n">
         <v>0.1563196133285912</v>
@@ -32551,19 +32551,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J21" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K21" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L21" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M21" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N21" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O21" t="n">
         <v>248.7461884998501</v>
@@ -32575,10 +32575,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R21" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S21" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T21" t="n">
         <v>4.214016392267999</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H22" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I22" t="n">
         <v>26.35859397984249</v>
@@ -32651,10 +32651,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R22" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S22" t="n">
         <v>15.2749167652231</v>
@@ -32663,7 +32663,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32712,7 +32712,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K23" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L23" t="n">
         <v>308.355092254396</v>
@@ -32721,7 +32721,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N23" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O23" t="n">
         <v>329.2262031277212</v>
@@ -32739,7 +32739,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T23" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U23" t="n">
         <v>0.1563196133285912</v>
@@ -32788,19 +32788,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J24" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K24" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L24" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M24" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N24" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O24" t="n">
         <v>248.7461884998501</v>
@@ -32812,10 +32812,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R24" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S24" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T24" t="n">
         <v>4.214016392267999</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H25" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I25" t="n">
         <v>26.35859397984249</v>
@@ -32888,10 +32888,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R25" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S25" t="n">
         <v>15.2749167652231</v>
@@ -32900,7 +32900,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32949,7 +32949,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K26" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L26" t="n">
         <v>308.355092254396</v>
@@ -32958,7 +32958,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N26" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O26" t="n">
         <v>329.2262031277212</v>
@@ -32976,7 +32976,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T26" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U26" t="n">
         <v>0.1563196133285912</v>
@@ -33025,19 +33025,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J27" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K27" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L27" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M27" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N27" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O27" t="n">
         <v>248.7461884998501</v>
@@ -33049,10 +33049,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R27" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S27" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T27" t="n">
         <v>4.214016392267999</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H28" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I28" t="n">
         <v>26.35859397984249</v>
@@ -33125,10 +33125,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R28" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S28" t="n">
         <v>15.2749167652231</v>
@@ -33137,7 +33137,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33186,7 +33186,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K29" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L29" t="n">
         <v>308.355092254396</v>
@@ -33195,7 +33195,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N29" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O29" t="n">
         <v>329.2262031277212</v>
@@ -33213,7 +33213,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T29" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U29" t="n">
         <v>0.1563196133285912</v>
@@ -33262,19 +33262,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J30" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K30" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L30" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M30" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N30" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O30" t="n">
         <v>248.7461884998501</v>
@@ -33286,10 +33286,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R30" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S30" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T30" t="n">
         <v>4.214016392267999</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H31" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I31" t="n">
         <v>26.35859397984249</v>
@@ -33362,10 +33362,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R31" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S31" t="n">
         <v>15.2749167652231</v>
@@ -33374,7 +33374,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K32" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L32" t="n">
         <v>308.355092254396</v>
@@ -33432,7 +33432,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N32" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O32" t="n">
         <v>329.2262031277212</v>
@@ -33450,7 +33450,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T32" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U32" t="n">
         <v>0.1563196133285912</v>
@@ -33499,19 +33499,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J33" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K33" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L33" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M33" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N33" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O33" t="n">
         <v>248.7461884998501</v>
@@ -33523,10 +33523,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R33" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S33" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T33" t="n">
         <v>4.214016392267999</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H34" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I34" t="n">
         <v>26.35859397984249</v>
@@ -33599,10 +33599,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R34" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S34" t="n">
         <v>15.2749167652231</v>
@@ -33611,7 +33611,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>165.8428972718442</v>
       </c>
       <c r="K35" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L35" t="n">
         <v>308.355092254396</v>
@@ -33669,7 +33669,7 @@
         <v>343.1044537985502</v>
       </c>
       <c r="N35" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O35" t="n">
         <v>329.2262031277212</v>
@@ -33687,7 +33687,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T35" t="n">
-        <v>8.553613841823855</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U35" t="n">
         <v>0.1563196133285912</v>
@@ -33736,19 +33736,19 @@
         <v>35.99567864994974</v>
       </c>
       <c r="J36" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K36" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L36" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M36" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N36" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O36" t="n">
         <v>248.7461884998501</v>
@@ -33760,10 +33760,10 @@
         <v>133.454551774285</v>
       </c>
       <c r="R36" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S36" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T36" t="n">
         <v>4.214016392267999</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8764949630540123</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H37" t="n">
-        <v>7.792837035152951</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I37" t="n">
         <v>26.35859397984249</v>
@@ -33836,10 +33836,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R37" t="n">
-        <v>39.41040079331949</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S37" t="n">
         <v>15.2749167652231</v>
@@ -33848,7 +33848,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,31 +33891,31 @@
         <v>20.01135300001794</v>
       </c>
       <c r="I38" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063149</v>
       </c>
       <c r="J38" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K38" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L38" t="n">
         <v>308.355092254396</v>
       </c>
       <c r="M38" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985502</v>
       </c>
       <c r="N38" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656735</v>
       </c>
       <c r="O38" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277212</v>
       </c>
       <c r="P38" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q38" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R38" t="n">
         <v>122.7426488844016</v>
@@ -33924,7 +33924,7 @@
         <v>44.52666485906595</v>
       </c>
       <c r="T38" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823857</v>
       </c>
       <c r="U38" t="n">
         <v>0.1563196133285912</v>
@@ -33970,43 +33970,43 @@
         <v>10.0971317690687</v>
       </c>
       <c r="I39" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994974</v>
       </c>
       <c r="J39" t="n">
-        <v>98.77489347752449</v>
+        <v>98.7748934775245</v>
       </c>
       <c r="K39" t="n">
         <v>168.8220255866496</v>
       </c>
       <c r="L39" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M39" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N39" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O39" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P39" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q39" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R39" t="n">
-        <v>64.91144292594758</v>
+        <v>64.9114429259476</v>
       </c>
       <c r="S39" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T39" t="n">
         <v>4.214016392267999</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041353</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540124</v>
       </c>
       <c r="H40" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152952</v>
       </c>
       <c r="I40" t="n">
         <v>26.35859397984249</v>
       </c>
       <c r="J40" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791867</v>
       </c>
       <c r="K40" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L40" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M40" t="n">
         <v>137.3945695267303</v>
@@ -34073,10 +34073,10 @@
         <v>106.0080817133689</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.39450095173189</v>
+        <v>73.3945009517319</v>
       </c>
       <c r="R40" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S40" t="n">
         <v>15.2749167652231</v>
@@ -34085,7 +34085,7 @@
         <v>3.745023933048961</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658255</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H41" t="n">
-        <v>20.01135300001794</v>
+        <v>20.01135300001795</v>
       </c>
       <c r="I41" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J41" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K41" t="n">
-        <v>248.555512674335</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L41" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M41" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N41" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O41" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277213</v>
       </c>
       <c r="P41" t="n">
-        <v>280.9869474521012</v>
+        <v>280.9869474521013</v>
       </c>
       <c r="Q41" t="n">
-        <v>211.0094955479747</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R41" t="n">
         <v>122.7426488844016</v>
       </c>
       <c r="S41" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906597</v>
       </c>
       <c r="T41" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823859</v>
       </c>
       <c r="U41" t="n">
         <v>0.1563196133285912</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.045479583718285</v>
+        <v>1.045479583718286</v>
       </c>
       <c r="H42" t="n">
-        <v>10.0971317690687</v>
+        <v>10.09713176906871</v>
       </c>
       <c r="I42" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J42" t="n">
-        <v>98.77489347752449</v>
+        <v>98.77489347752453</v>
       </c>
       <c r="K42" t="n">
-        <v>168.8220255866496</v>
+        <v>168.8220255866497</v>
       </c>
       <c r="L42" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M42" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N42" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O42" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P42" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q42" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R42" t="n">
-        <v>64.91144292594758</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S42" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T42" t="n">
-        <v>4.214016392267999</v>
+        <v>4.214016392268</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540126</v>
       </c>
       <c r="H43" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152954</v>
       </c>
       <c r="I43" t="n">
-        <v>26.35859397984249</v>
+        <v>26.3585939798425</v>
       </c>
       <c r="J43" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791869</v>
       </c>
       <c r="K43" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M43" t="n">
-        <v>137.3945695267303</v>
+        <v>137.3945695267304</v>
       </c>
       <c r="N43" t="n">
         <v>134.1276337553473</v>
       </c>
       <c r="O43" t="n">
-        <v>123.8885789596708</v>
+        <v>123.8885789596709</v>
       </c>
       <c r="P43" t="n">
         <v>106.0080817133689</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.39450095173189</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R43" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S43" t="n">
-        <v>15.2749167652231</v>
+        <v>15.27491676522311</v>
       </c>
       <c r="T43" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.95399516660739</v>
+        <v>1.953995166607391</v>
       </c>
       <c r="H44" t="n">
-        <v>20.01135300001794</v>
+        <v>20.01135300001795</v>
       </c>
       <c r="I44" t="n">
-        <v>75.33139866063148</v>
+        <v>75.33139866063151</v>
       </c>
       <c r="J44" t="n">
-        <v>165.8428972718441</v>
+        <v>165.8428972718442</v>
       </c>
       <c r="K44" t="n">
-        <v>248.555512674336</v>
+        <v>248.5555126743351</v>
       </c>
       <c r="L44" t="n">
-        <v>308.355092254396</v>
+        <v>308.3550922543961</v>
       </c>
       <c r="M44" t="n">
-        <v>343.1044537985501</v>
+        <v>343.1044537985503</v>
       </c>
       <c r="N44" t="n">
-        <v>348.6562425656734</v>
+        <v>348.6562425656736</v>
       </c>
       <c r="O44" t="n">
-        <v>329.2262031277211</v>
+        <v>329.2262031277213</v>
       </c>
       <c r="P44" t="n">
         <v>280.9869474521012</v>
       </c>
       <c r="Q44" t="n">
-        <v>211.0094955479739</v>
+        <v>211.009495547974</v>
       </c>
       <c r="R44" t="n">
         <v>122.7426488844016</v>
       </c>
       <c r="S44" t="n">
-        <v>44.52666485906595</v>
+        <v>44.52666485906597</v>
       </c>
       <c r="T44" t="n">
-        <v>8.553613841823854</v>
+        <v>8.553613841823859</v>
       </c>
       <c r="U44" t="n">
         <v>0.1563196133285912</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.045479583718285</v>
+        <v>1.045479583718286</v>
       </c>
       <c r="H45" t="n">
-        <v>10.0971317690687</v>
+        <v>10.09713176906871</v>
       </c>
       <c r="I45" t="n">
-        <v>35.99567864994973</v>
+        <v>35.99567864994975</v>
       </c>
       <c r="J45" t="n">
-        <v>98.77489347752449</v>
+        <v>98.77489347752453</v>
       </c>
       <c r="K45" t="n">
-        <v>168.8220255866496</v>
+        <v>168.8220255866497</v>
       </c>
       <c r="L45" t="n">
-        <v>227.002047333218</v>
+        <v>227.0020473332181</v>
       </c>
       <c r="M45" t="n">
-        <v>264.9006822430058</v>
+        <v>264.9006822430059</v>
       </c>
       <c r="N45" t="n">
-        <v>271.9118150653973</v>
+        <v>271.9118150653974</v>
       </c>
       <c r="O45" t="n">
-        <v>248.74618849985</v>
+        <v>248.7461884998501</v>
       </c>
       <c r="P45" t="n">
-        <v>199.6407461224855</v>
+        <v>199.6407461224856</v>
       </c>
       <c r="Q45" t="n">
         <v>133.454551774285</v>
       </c>
       <c r="R45" t="n">
-        <v>64.91144292594758</v>
+        <v>64.91144292594761</v>
       </c>
       <c r="S45" t="n">
-        <v>19.41932472389006</v>
+        <v>19.41932472389007</v>
       </c>
       <c r="T45" t="n">
-        <v>4.214016392267999</v>
+        <v>4.214016392268</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06878155156041352</v>
+        <v>0.06878155156041355</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8764949630540122</v>
+        <v>0.8764949630540126</v>
       </c>
       <c r="H46" t="n">
-        <v>7.79283703515295</v>
+        <v>7.792837035152954</v>
       </c>
       <c r="I46" t="n">
-        <v>26.35859397984249</v>
+        <v>26.3585939798425</v>
       </c>
       <c r="J46" t="n">
-        <v>61.96819388791866</v>
+        <v>61.96819388791869</v>
       </c>
       <c r="K46" t="n">
         <v>101.8327784348207</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3108965980483</v>
+        <v>130.3108965980484</v>
       </c>
       <c r="M46" t="n">
-        <v>137.3945695267303</v>
+        <v>137.3945695267304</v>
       </c>
       <c r="N46" t="n">
         <v>134.1276337553473</v>
       </c>
       <c r="O46" t="n">
-        <v>123.8885789596708</v>
+        <v>123.8885789596709</v>
       </c>
       <c r="P46" t="n">
         <v>106.0080817133689</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.39450095173189</v>
+        <v>73.39450095173191</v>
       </c>
       <c r="R46" t="n">
-        <v>39.41040079331948</v>
+        <v>39.4104007933195</v>
       </c>
       <c r="S46" t="n">
-        <v>15.2749167652231</v>
+        <v>15.27491676522311</v>
       </c>
       <c r="T46" t="n">
-        <v>3.745023933048961</v>
+        <v>3.745023933048962</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04780881616658254</v>
+        <v>0.04780881616658256</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35166,10 +35166,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7114171667220877</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -35190,10 +35190,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7413715737419651</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>0.7413715737419651</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7114171667220877</v>
+        <v>0.7413715737419651</v>
       </c>
       <c r="N9" t="n">
         <v>0.7413715737419651</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7413715737419651</v>
+        <v>0.7114171667220875</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N11" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O11" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P11" t="n">
         <v>243.4115856418699</v>
@@ -35433,7 +35433,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R11" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>19.82329189994974</v>
       </c>
       <c r="J12" t="n">
-        <v>78.16377914419115</v>
+        <v>372.9090057759443</v>
       </c>
       <c r="K12" t="n">
         <v>146.4227917533163</v>
       </c>
       <c r="L12" t="n">
-        <v>225.7748166981824</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M12" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N12" t="n">
-        <v>524.0261574044151</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O12" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P12" t="n">
         <v>177.8699049176569</v>
@@ -35512,7 +35512,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R12" t="n">
-        <v>41.23852353180344</v>
+        <v>41.23852353180345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.33143790401679</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K13" t="n">
-        <v>80.86812398210868</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L13" t="n">
-        <v>231.200412752296</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M13" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N13" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O13" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P13" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.6774607908854</v>
+        <v>103.7215497562804</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35658,10 +35658,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N14" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O14" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P14" t="n">
         <v>243.4115856418699</v>
@@ -35670,7 +35670,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R14" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>19.82329189994974</v>
       </c>
       <c r="J15" t="n">
-        <v>78.16377914419115</v>
+        <v>372.9090057759443</v>
       </c>
       <c r="K15" t="n">
         <v>146.4227917533163</v>
@@ -35734,22 +35734,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M15" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N15" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O15" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P15" t="n">
         <v>177.8699049176569</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.9320327585691</v>
+        <v>110.7075134853065</v>
       </c>
       <c r="R15" t="n">
-        <v>147.7592308902941</v>
+        <v>41.23852353180345</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>120.0402425991894</v>
+        <v>78.00161469278083</v>
       </c>
       <c r="K16" t="n">
-        <v>80.86812398210868</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L16" t="n">
-        <v>152.4916080571234</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M16" t="n">
         <v>524.0261574044151</v>
       </c>
       <c r="N16" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O16" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P16" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q16" t="n">
         <v>201.6774607908854</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J17" t="n">
         <v>136.4229377862576</v>
@@ -35889,16 +35889,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L17" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M17" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N17" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O17" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P17" t="n">
         <v>243.4115856418699</v>
@@ -35907,7 +35907,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R17" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>43.51754022763846</v>
       </c>
       <c r="J18" t="n">
-        <v>349.214757448256</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K18" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L18" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M18" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N18" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O18" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P18" t="n">
         <v>177.8699049176569</v>
@@ -35986,7 +35986,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R18" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.33143790401679</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K19" t="n">
         <v>330.6485372285956</v>
@@ -36050,19 +36050,19 @@
         <v>488.5829383095845</v>
       </c>
       <c r="M19" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N19" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O19" t="n">
-        <v>128.6464745575742</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P19" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.77493818694694</v>
+        <v>103.7215497562804</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36132,10 +36132,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N20" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O20" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P20" t="n">
         <v>243.4115856418699</v>
@@ -36144,7 +36144,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R20" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J21" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K21" t="n">
         <v>146.4227917533163</v>
@@ -36208,22 +36208,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M21" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N21" t="n">
-        <v>524.026157404415</v>
+        <v>250.5687868518557</v>
       </c>
       <c r="O21" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P21" t="n">
-        <v>199.1577609968508</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q21" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R21" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>120.0402425991894</v>
+        <v>78.00161469278049</v>
       </c>
       <c r="K22" t="n">
-        <v>80.86812398210868</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L22" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M22" t="n">
-        <v>114.8191296352445</v>
+        <v>524.026157404415</v>
       </c>
       <c r="N22" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O22" t="n">
-        <v>153.9691308580798</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P22" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q22" t="n">
         <v>201.6774607908854</v>
@@ -36369,10 +36369,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N23" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O23" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P23" t="n">
         <v>243.4115856418699</v>
@@ -36381,7 +36381,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R23" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J24" t="n">
-        <v>372.9090057759444</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K24" t="n">
         <v>146.4227917533163</v>
@@ -36445,13 +36445,13 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M24" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N24" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O24" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P24" t="n">
         <v>177.8699049176569</v>
@@ -36460,7 +36460,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R24" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K25" t="n">
-        <v>80.86812398210868</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L25" t="n">
-        <v>159.6451784102529</v>
+        <v>488.5829383095845</v>
       </c>
       <c r="M25" t="n">
         <v>114.8191296352445</v>
       </c>
       <c r="N25" t="n">
-        <v>515.4321901957875</v>
+        <v>113.3787327797469</v>
       </c>
       <c r="O25" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P25" t="n">
         <v>399.5426392102386</v>
       </c>
       <c r="Q25" t="n">
-        <v>201.6774607908854</v>
+        <v>103.7215497562804</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36606,10 +36606,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N26" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O26" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P26" t="n">
         <v>243.4115856418699</v>
@@ -36618,7 +36618,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R26" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J27" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K27" t="n">
         <v>146.4227917533163</v>
@@ -36682,22 +36682,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M27" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N27" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O27" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P27" t="n">
-        <v>366.0944241909194</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q27" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R27" t="n">
-        <v>147.7592308902941</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K28" t="n">
-        <v>80.86812398210868</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L28" t="n">
-        <v>108.3921367023472</v>
+        <v>297.9648360950497</v>
       </c>
       <c r="M28" t="n">
         <v>524.0261574044151</v>
@@ -36767,13 +36767,13 @@
         <v>515.4321901957875</v>
       </c>
       <c r="O28" t="n">
-        <v>124.952904696147</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P28" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N29" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O29" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P29" t="n">
         <v>243.4115856418699</v>
@@ -36855,7 +36855,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R29" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J30" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K30" t="n">
         <v>146.4227917533163</v>
@@ -36919,22 +36919,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M30" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N30" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O30" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P30" t="n">
-        <v>366.0944241909194</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q30" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R30" t="n">
-        <v>147.7592308902941</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K31" t="n">
-        <v>330.6485372285956</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L31" t="n">
-        <v>284.2286941068015</v>
+        <v>297.9648360950493</v>
       </c>
       <c r="M31" t="n">
-        <v>524.0261574044151</v>
+        <v>524.026157404415</v>
       </c>
       <c r="N31" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O31" t="n">
-        <v>101.3893914612464</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P31" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q31" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N32" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O32" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P32" t="n">
         <v>243.4115856418699</v>
@@ -37092,7 +37092,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R32" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J33" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K33" t="n">
         <v>146.4227917533163</v>
@@ -37156,22 +37156,22 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M33" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N33" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O33" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P33" t="n">
-        <v>366.0944241909194</v>
+        <v>177.8699049176569</v>
       </c>
       <c r="Q33" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R33" t="n">
-        <v>147.7592308902941</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.33143790401679</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K34" t="n">
-        <v>232.6926261939907</v>
+        <v>330.6485372285956</v>
       </c>
       <c r="L34" t="n">
-        <v>488.5829383095845</v>
+        <v>108.3921367023472</v>
       </c>
       <c r="M34" t="n">
-        <v>114.8191296352445</v>
+        <v>463.8184435506308</v>
       </c>
       <c r="N34" t="n">
-        <v>113.3787327797469</v>
+        <v>515.4321901957875</v>
       </c>
       <c r="O34" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P34" t="n">
-        <v>399.5426392102386</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q34" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>305.6731908991184</v>
       </c>
       <c r="N35" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O35" t="n">
-        <v>291.8352437716971</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P35" t="n">
         <v>243.4115856418699</v>
@@ -37329,7 +37329,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R35" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.82329189994974</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J36" t="n">
-        <v>372.9090057759444</v>
+        <v>242.6940500897648</v>
       </c>
       <c r="K36" t="n">
         <v>146.4227917533163</v>
@@ -37393,13 +37393,13 @@
         <v>204.4869606189885</v>
       </c>
       <c r="M36" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N36" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O36" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P36" t="n">
         <v>177.8699049176569</v>
@@ -37408,7 +37408,7 @@
         <v>110.7075134853065</v>
       </c>
       <c r="R36" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K37" t="n">
-        <v>330.6485372285956</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L37" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M37" t="n">
-        <v>114.8191296352445</v>
+        <v>333.4080551898803</v>
       </c>
       <c r="N37" t="n">
         <v>515.4321901957875</v>
       </c>
       <c r="O37" t="n">
-        <v>373.0065983703877</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P37" t="n">
-        <v>83.62728105538238</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.77493818694694</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>40.78349611666798</v>
+        <v>40.78349611666799</v>
       </c>
       <c r="J38" t="n">
         <v>136.4229377862576</v>
@@ -37548,16 +37548,16 @@
         <v>212.7909118795257</v>
       </c>
       <c r="L38" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217731</v>
       </c>
       <c r="M38" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991184</v>
       </c>
       <c r="N38" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O38" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P38" t="n">
         <v>243.4115856418699</v>
@@ -37566,7 +37566,7 @@
         <v>174.8848209433759</v>
       </c>
       <c r="R38" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960514</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763846</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16377914419115</v>
+        <v>78.16377914419117</v>
       </c>
       <c r="K39" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L39" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M39" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N39" t="n">
         <v>250.5687868518557</v>
       </c>
       <c r="O39" t="n">
-        <v>520.3195254093812</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P39" t="n">
         <v>177.8699049176569</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.7075134853065</v>
+        <v>275.2377844308801</v>
       </c>
       <c r="R39" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.0402425991894</v>
+        <v>41.33143790401681</v>
       </c>
       <c r="K40" t="n">
-        <v>330.6485372285956</v>
+        <v>80.8681239821087</v>
       </c>
       <c r="L40" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M40" t="n">
-        <v>114.8191296352445</v>
+        <v>524.0261574044151</v>
       </c>
       <c r="N40" t="n">
-        <v>252.6293752048256</v>
+        <v>324.8140879812526</v>
       </c>
       <c r="O40" t="n">
-        <v>482.9068907574112</v>
+        <v>482.9068907574113</v>
       </c>
       <c r="P40" t="n">
-        <v>83.62728105538237</v>
+        <v>83.6272810553824</v>
       </c>
       <c r="Q40" t="n">
-        <v>201.6774607908854</v>
+        <v>48.77493818694695</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>40.78349611666798</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J41" t="n">
-        <v>136.4229377862576</v>
+        <v>136.4229377862577</v>
       </c>
       <c r="K41" t="n">
-        <v>212.7909118795257</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L41" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217732</v>
       </c>
       <c r="M41" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991185</v>
       </c>
       <c r="N41" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O41" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P41" t="n">
-        <v>243.4115856418699</v>
+        <v>243.41158564187</v>
       </c>
       <c r="Q41" t="n">
-        <v>174.8848209433767</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R41" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960517</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J42" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897646</v>
       </c>
       <c r="K42" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L42" t="n">
-        <v>204.4869606189884</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M42" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N42" t="n">
-        <v>524.0261574044151</v>
+        <v>250.5687868518558</v>
       </c>
       <c r="O42" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P42" t="n">
-        <v>177.8699049176569</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q42" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R42" t="n">
-        <v>62.52637961099757</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>41.33143790401679</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K43" t="n">
-        <v>80.86812398210867</v>
+        <v>330.6485372285957</v>
       </c>
       <c r="L43" t="n">
         <v>488.5829383095845</v>
       </c>
       <c r="M43" t="n">
-        <v>524.0261574044151</v>
+        <v>114.8191296352445</v>
       </c>
       <c r="N43" t="n">
         <v>113.3787327797469</v>
       </c>
       <c r="O43" t="n">
-        <v>482.9068907574112</v>
+        <v>384.9509797228064</v>
       </c>
       <c r="P43" t="n">
-        <v>142.16011365295</v>
+        <v>399.5426392102386</v>
       </c>
       <c r="Q43" t="n">
         <v>201.6774607908854</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40.78349611666798</v>
+        <v>40.783496116668</v>
       </c>
       <c r="J44" t="n">
-        <v>136.4229377862576</v>
+        <v>136.4229377862577</v>
       </c>
       <c r="K44" t="n">
-        <v>212.7909118795266</v>
+        <v>212.7909118795258</v>
       </c>
       <c r="L44" t="n">
-        <v>270.043049821773</v>
+        <v>270.0430498217732</v>
       </c>
       <c r="M44" t="n">
-        <v>305.6731908991183</v>
+        <v>305.6731908991185</v>
       </c>
       <c r="N44" t="n">
-        <v>311.3766197312274</v>
+        <v>311.3766197312275</v>
       </c>
       <c r="O44" t="n">
-        <v>291.835243771697</v>
+        <v>291.8352437716972</v>
       </c>
       <c r="P44" t="n">
         <v>243.4115856418699</v>
       </c>
       <c r="Q44" t="n">
-        <v>174.8848209433759</v>
+        <v>174.884820943376</v>
       </c>
       <c r="R44" t="n">
-        <v>87.70999898960511</v>
+        <v>87.70999898960517</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.82329189994973</v>
+        <v>43.51754022763848</v>
       </c>
       <c r="J45" t="n">
-        <v>78.16377914419115</v>
+        <v>242.6940500897646</v>
       </c>
       <c r="K45" t="n">
-        <v>146.4227917533162</v>
+        <v>146.4227917533163</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2321872507415</v>
+        <v>204.4869606189885</v>
       </c>
       <c r="M45" t="n">
-        <v>241.8039017306778</v>
+        <v>241.8039017306779</v>
       </c>
       <c r="N45" t="n">
-        <v>250.5687868518557</v>
+        <v>250.5687868518558</v>
       </c>
       <c r="O45" t="n">
-        <v>225.5742987776278</v>
+        <v>225.5742987776279</v>
       </c>
       <c r="P45" t="n">
-        <v>177.8699049176569</v>
+        <v>177.869904917657</v>
       </c>
       <c r="Q45" t="n">
         <v>110.7075134853065</v>
       </c>
       <c r="R45" t="n">
-        <v>41.23852353180344</v>
+        <v>147.7592308902942</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>41.33143790401679</v>
+        <v>41.33143790401682</v>
       </c>
       <c r="K46" t="n">
-        <v>232.6926261939907</v>
+        <v>330.6485372285957</v>
       </c>
       <c r="L46" t="n">
         <v>488.5829383095845</v>
@@ -38189,7 +38189,7 @@
         <v>113.3787327797469</v>
       </c>
       <c r="O46" t="n">
-        <v>482.9068907574112</v>
+        <v>384.9509797228064</v>
       </c>
       <c r="P46" t="n">
         <v>399.5426392102386</v>
